--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H2">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I2">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J2">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.934527333333333</v>
+        <v>1.038069333333333</v>
       </c>
       <c r="N2">
-        <v>5.803582</v>
+        <v>3.114208</v>
       </c>
       <c r="O2">
-        <v>0.02013804066617814</v>
+        <v>0.01303513967359888</v>
       </c>
       <c r="P2">
-        <v>0.02153945200437125</v>
+        <v>0.01321546873134007</v>
       </c>
       <c r="Q2">
-        <v>81.25290212208022</v>
+        <v>39.33095498834489</v>
       </c>
       <c r="R2">
-        <v>731.276119098722</v>
+        <v>353.978594895104</v>
       </c>
       <c r="S2">
-        <v>0.0191002092079876</v>
+        <v>0.01234229078185533</v>
       </c>
       <c r="T2">
-        <v>0.02059368976746499</v>
+        <v>0.01260791213620875</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H3">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I3">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J3">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>75.23900966666668</v>
+        <v>75.23900966666666</v>
       </c>
       <c r="N3">
         <v>225.717029</v>
       </c>
       <c r="O3">
-        <v>0.7832229662733998</v>
+        <v>0.9447837137804441</v>
       </c>
       <c r="P3">
-        <v>0.837727650391564</v>
+        <v>0.9578539194814477</v>
       </c>
       <c r="Q3">
-        <v>3160.145521270095</v>
+        <v>2850.697932733439</v>
       </c>
       <c r="R3">
-        <v>28441.30969143086</v>
+        <v>25656.28139460095</v>
       </c>
       <c r="S3">
-        <v>0.7428588888216631</v>
+        <v>0.8945661967134093</v>
       </c>
       <c r="T3">
-        <v>0.8009443944205318</v>
+        <v>0.9138183670705625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H4">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I4">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J4">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03746333333333333</v>
+        <v>0.062446</v>
       </c>
       <c r="N4">
-        <v>0.11239</v>
+        <v>0.187338</v>
       </c>
       <c r="O4">
-        <v>0.0003899857692149022</v>
+        <v>0.0007841406213626924</v>
       </c>
       <c r="P4">
-        <v>0.0004171249774314009</v>
+        <v>0.0007949884789942698</v>
       </c>
       <c r="Q4">
-        <v>1.573513335298888</v>
+        <v>2.365989184282667</v>
       </c>
       <c r="R4">
-        <v>14.16162001769</v>
+        <v>21.293902658544</v>
       </c>
       <c r="S4">
-        <v>0.0003698875130713629</v>
+        <v>0.0007424616693847086</v>
       </c>
       <c r="T4">
-        <v>0.0003988096994175993</v>
+        <v>0.0007584403622921382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H5">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I5">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J5">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.750372</v>
+        <v>3.259981</v>
       </c>
       <c r="N5">
-        <v>37.500744</v>
+        <v>6.519962</v>
       </c>
       <c r="O5">
-        <v>0.195187603367352</v>
+        <v>0.04093590505349536</v>
       </c>
       <c r="P5">
-        <v>0.1391805053355347</v>
+        <v>0.02766814353457621</v>
       </c>
       <c r="Q5">
-        <v>787.5423182796038</v>
+        <v>123.5159944106426</v>
       </c>
       <c r="R5">
-        <v>4725.253909677624</v>
+        <v>741.0959664638559</v>
       </c>
       <c r="S5">
-        <v>0.185128440294766</v>
+        <v>0.03876006366176267</v>
       </c>
       <c r="T5">
-        <v>0.1330693161542516</v>
+        <v>0.02639615209626971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.00142366666666</v>
+        <v>37.88856266666667</v>
       </c>
       <c r="H6">
-        <v>126.004271</v>
+        <v>113.665688</v>
       </c>
       <c r="I6">
-        <v>0.9484641293860542</v>
+        <v>0.9468476050819132</v>
       </c>
       <c r="J6">
-        <v>0.9560916295960395</v>
+        <v>0.9540268599258594</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.101962</v>
+        <v>0.03672033333333333</v>
       </c>
       <c r="N6">
-        <v>0.305886</v>
+        <v>0.110161</v>
       </c>
       <c r="O6">
-        <v>0.001061403923855055</v>
+        <v>0.0004611008710989525</v>
       </c>
       <c r="P6">
-        <v>0.001135267291098688</v>
+        <v>0.0004674797736416945</v>
       </c>
       <c r="Q6">
-        <v>4.282549159900666</v>
+        <v>1.391280650640889</v>
       </c>
       <c r="R6">
-        <v>38.54294243910599</v>
+        <v>12.521525855768</v>
       </c>
       <c r="S6">
-        <v>0.001006703548566126</v>
+        <v>0.0004365922555012271</v>
       </c>
       <c r="T6">
-        <v>0.001085419554373626</v>
+        <v>0.0004459882605262373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.519487</v>
       </c>
       <c r="I7">
-        <v>0.0264920160788878</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J7">
-        <v>0.02670506352258549</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.934527333333333</v>
+        <v>1.038069333333333</v>
       </c>
       <c r="N7">
-        <v>5.803582</v>
+        <v>3.114208</v>
       </c>
       <c r="O7">
-        <v>0.02013804066617814</v>
+        <v>0.01303513967359888</v>
       </c>
       <c r="P7">
-        <v>0.02153945200437125</v>
+        <v>0.01321546873134007</v>
       </c>
       <c r="Q7">
-        <v>2.269514600270444</v>
+        <v>1.217823841255111</v>
       </c>
       <c r="R7">
-        <v>20.425631402434</v>
+        <v>10.960414571296</v>
       </c>
       <c r="S7">
-        <v>0.0005334972971256877</v>
+        <v>0.0003821604630322537</v>
       </c>
       <c r="T7">
-        <v>0.0005752124340184156</v>
+        <v>0.0003903850285983306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.519487</v>
       </c>
       <c r="I8">
-        <v>0.0264920160788878</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J8">
-        <v>0.02670506352258549</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>75.23900966666668</v>
+        <v>75.23900966666666</v>
       </c>
       <c r="N8">
         <v>225.717029</v>
       </c>
       <c r="O8">
-        <v>0.7832229662733998</v>
+        <v>0.9447837137804441</v>
       </c>
       <c r="P8">
-        <v>0.837727650391564</v>
+        <v>0.9578539194814477</v>
       </c>
       <c r="Q8">
-        <v>88.26757213823589</v>
+        <v>88.26757213823588</v>
       </c>
       <c r="R8">
-        <v>794.408149244123</v>
+        <v>794.4081492441228</v>
       </c>
       <c r="S8">
-        <v>0.02074915541586911</v>
+        <v>0.02769889625770168</v>
       </c>
       <c r="T8">
-        <v>0.02237157011833301</v>
+        <v>0.02829501074472072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>3.519487</v>
       </c>
       <c r="I9">
-        <v>0.0264920160788878</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J9">
-        <v>0.02670506352258549</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03746333333333333</v>
+        <v>0.062446</v>
       </c>
       <c r="N9">
-        <v>0.11239</v>
+        <v>0.187338</v>
       </c>
       <c r="O9">
-        <v>0.0003899857692149022</v>
+        <v>0.0007841406213626924</v>
       </c>
       <c r="P9">
-        <v>0.0004171249774314009</v>
+        <v>0.0007949884789942698</v>
       </c>
       <c r="Q9">
-        <v>0.04395057154777777</v>
+        <v>0.07325929506733332</v>
       </c>
       <c r="R9">
-        <v>0.39555514393</v>
+        <v>0.659333655606</v>
       </c>
       <c r="S9">
-        <v>1.033150926857862E-05</v>
+        <v>2.298920843551116E-05</v>
       </c>
       <c r="T9">
-        <v>1.11393490191626E-05</v>
+        <v>2.348396461879041E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.519487</v>
       </c>
       <c r="I10">
-        <v>0.0264920160788878</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J10">
-        <v>0.02670506352258549</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.750372</v>
+        <v>3.259981</v>
       </c>
       <c r="N10">
-        <v>37.500744</v>
+        <v>6.519962</v>
       </c>
       <c r="O10">
-        <v>0.195187603367352</v>
+        <v>0.04093590505349536</v>
       </c>
       <c r="P10">
-        <v>0.1391805053355347</v>
+        <v>0.02766814353457621</v>
       </c>
       <c r="Q10">
-        <v>21.997230166388</v>
+        <v>3.824486916582333</v>
       </c>
       <c r="R10">
-        <v>131.983380998328</v>
+        <v>22.946921499494</v>
       </c>
       <c r="S10">
-        <v>0.005170913126807465</v>
+        <v>0.001200147050328381</v>
       </c>
       <c r="T10">
-        <v>0.003716824236091002</v>
+        <v>0.0008173171322628511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.519487</v>
       </c>
       <c r="I11">
-        <v>0.0264920160788878</v>
+        <v>0.02931771140176381</v>
       </c>
       <c r="J11">
-        <v>0.02670506352258549</v>
+        <v>0.02954000622562442</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.101962</v>
+        <v>0.03672033333333333</v>
       </c>
       <c r="N11">
-        <v>0.305886</v>
+        <v>0.110161</v>
       </c>
       <c r="O11">
-        <v>0.001061403923855055</v>
+        <v>0.0004611008710989525</v>
       </c>
       <c r="P11">
-        <v>0.001135267291098688</v>
+        <v>0.0004674797736416945</v>
       </c>
       <c r="Q11">
-        <v>0.1196179778313333</v>
+        <v>0.04307891193411111</v>
       </c>
       <c r="R11">
-        <v>1.076561800482</v>
+        <v>0.387710207407</v>
       </c>
       <c r="S11">
-        <v>2.811872981696271E-05</v>
+        <v>1.351842226598098E-05</v>
       </c>
       <c r="T11">
-        <v>3.0317385123904E-05</v>
+        <v>1.380935542372915E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.049176</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H12">
-        <v>0.147528</v>
+        <v>0.151144</v>
       </c>
       <c r="I12">
-        <v>0.001110478358944403</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J12">
-        <v>0.001119408769334847</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.934527333333333</v>
+        <v>1.038069333333333</v>
       </c>
       <c r="N12">
-        <v>5.803582</v>
+        <v>3.114208</v>
       </c>
       <c r="O12">
-        <v>0.02013804066617814</v>
+        <v>0.01303513967359888</v>
       </c>
       <c r="P12">
-        <v>0.02153945200437125</v>
+        <v>0.01321546873134007</v>
       </c>
       <c r="Q12">
-        <v>0.095132316144</v>
+        <v>0.05229931710577777</v>
       </c>
       <c r="R12">
-        <v>0.856190845296</v>
+        <v>0.470693853952</v>
       </c>
       <c r="S12">
-        <v>2.236285835133315E-05</v>
+        <v>1.641184099402753E-05</v>
       </c>
       <c r="T12">
-        <v>2.411145146036022E-05</v>
+        <v>1.676504409945713E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.049176</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H13">
-        <v>0.147528</v>
+        <v>0.151144</v>
       </c>
       <c r="I13">
-        <v>0.001110478358944403</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J13">
-        <v>0.001119408769334847</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>75.23900966666668</v>
+        <v>75.23900966666666</v>
       </c>
       <c r="N13">
         <v>225.717029</v>
       </c>
       <c r="O13">
-        <v>0.7832229662733998</v>
+        <v>0.9447837137804441</v>
       </c>
       <c r="P13">
-        <v>0.837727650391564</v>
+        <v>0.9578539194814477</v>
       </c>
       <c r="Q13">
-        <v>3.699953539368</v>
+        <v>3.790641625686222</v>
       </c>
       <c r="R13">
-        <v>33.299581854312</v>
+        <v>34.115774631176</v>
       </c>
       <c r="S13">
-        <v>0.0008697521542748524</v>
+        <v>0.001189526194008974</v>
       </c>
       <c r="T13">
-        <v>0.0009377596781625935</v>
+        <v>0.001215126268118072</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.049176</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H14">
-        <v>0.147528</v>
+        <v>0.151144</v>
       </c>
       <c r="I14">
-        <v>0.001110478358944403</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J14">
-        <v>0.001119408769334847</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03746333333333333</v>
+        <v>0.062446</v>
       </c>
       <c r="N14">
-        <v>0.11239</v>
+        <v>0.187338</v>
       </c>
       <c r="O14">
-        <v>0.0003899857692149022</v>
+        <v>0.0007841406213626924</v>
       </c>
       <c r="P14">
-        <v>0.0004171249774314009</v>
+        <v>0.0007949884789942698</v>
       </c>
       <c r="Q14">
-        <v>0.00184229688</v>
+        <v>0.003146112741333333</v>
       </c>
       <c r="R14">
-        <v>0.01658067192</v>
+        <v>0.028315014672</v>
       </c>
       <c r="S14">
-        <v>4.330707570094352E-07</v>
+        <v>9.872691445591075E-07</v>
       </c>
       <c r="T14">
-        <v>4.669333576453102E-07</v>
+        <v>1.008516396947186E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.049176</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H15">
-        <v>0.147528</v>
+        <v>0.151144</v>
       </c>
       <c r="I15">
-        <v>0.001110478358944403</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J15">
-        <v>0.001119408769334847</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.750372</v>
+        <v>3.259981</v>
       </c>
       <c r="N15">
-        <v>37.500744</v>
+        <v>6.519962</v>
       </c>
       <c r="O15">
-        <v>0.195187603367352</v>
+        <v>0.04093590505349536</v>
       </c>
       <c r="P15">
-        <v>0.1391805053355347</v>
+        <v>0.02766814353457621</v>
       </c>
       <c r="Q15">
-        <v>0.9220682934719999</v>
+        <v>0.1642421894213333</v>
       </c>
       <c r="R15">
-        <v>5.532409760832</v>
+        <v>0.9854531365279999</v>
       </c>
       <c r="S15">
-        <v>0.0002167516094736681</v>
+        <v>5.154018917382928E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001557998781930529</v>
+        <v>3.509959850362749E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.049176</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H16">
-        <v>0.147528</v>
+        <v>0.151144</v>
       </c>
       <c r="I16">
-        <v>0.001110478358944403</v>
+        <v>0.00125904604054744</v>
       </c>
       <c r="J16">
-        <v>0.001119408769334847</v>
+        <v>0.001268592468438093</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.101962</v>
+        <v>0.03672033333333333</v>
       </c>
       <c r="N16">
-        <v>0.305886</v>
+        <v>0.110161</v>
       </c>
       <c r="O16">
-        <v>0.001061403923855055</v>
+        <v>0.0004611008710989525</v>
       </c>
       <c r="P16">
-        <v>0.001135267291098688</v>
+        <v>0.0004674797736416945</v>
       </c>
       <c r="Q16">
-        <v>0.005014083312</v>
+        <v>0.001850019353777778</v>
       </c>
       <c r="R16">
-        <v>0.04512674980799999</v>
+        <v>0.016650174184</v>
       </c>
       <c r="S16">
-        <v>1.178666087539711E-06</v>
+        <v>5.805472260501117E-07</v>
       </c>
       <c r="T16">
-        <v>1.270828161194887E-06</v>
+        <v>5.93041319988998E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0598565</v>
+        <v>0.903375</v>
       </c>
       <c r="H17">
-        <v>2.119713</v>
+        <v>1.80675</v>
       </c>
       <c r="I17">
-        <v>0.02393337617611352</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J17">
-        <v>0.01608389811204027</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.934527333333333</v>
+        <v>1.038069333333333</v>
       </c>
       <c r="N17">
-        <v>5.803582</v>
+        <v>3.114208</v>
       </c>
       <c r="O17">
-        <v>0.02013804066617814</v>
+        <v>0.01303513967359888</v>
       </c>
       <c r="P17">
-        <v>0.02153945200437125</v>
+        <v>0.01321546873134007</v>
       </c>
       <c r="Q17">
-        <v>2.050321368661</v>
+        <v>0.937765884</v>
       </c>
       <c r="R17">
-        <v>12.301928211966</v>
+        <v>5.626595303999999</v>
       </c>
       <c r="S17">
-        <v>0.0004819713027135132</v>
+        <v>0.0002942765877172686</v>
       </c>
       <c r="T17">
-        <v>0.0003464383514274886</v>
+        <v>0.0002004065224335348</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0598565</v>
+        <v>0.903375</v>
       </c>
       <c r="H18">
-        <v>2.119713</v>
+        <v>1.80675</v>
       </c>
       <c r="I18">
-        <v>0.02393337617611352</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J18">
-        <v>0.01608389811204027</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>75.23900966666668</v>
+        <v>75.23900966666666</v>
       </c>
       <c r="N18">
         <v>225.717029</v>
       </c>
       <c r="O18">
-        <v>0.7832229662733998</v>
+        <v>0.9447837137804441</v>
       </c>
       <c r="P18">
-        <v>0.837727650391564</v>
+        <v>0.9578539194814477</v>
       </c>
       <c r="Q18">
-        <v>79.7425534487795</v>
+        <v>67.96904035762499</v>
       </c>
       <c r="R18">
-        <v>478.455320692677</v>
+        <v>407.81424214575</v>
       </c>
       <c r="S18">
-        <v>0.01874516988159275</v>
+        <v>0.02132909461532427</v>
       </c>
       <c r="T18">
-        <v>0.0134739261745368</v>
+        <v>0.01452541539804641</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0598565</v>
+        <v>0.903375</v>
       </c>
       <c r="H19">
-        <v>2.119713</v>
+        <v>1.80675</v>
       </c>
       <c r="I19">
-        <v>0.02393337617611352</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J19">
-        <v>0.01608389811204027</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.03746333333333333</v>
+        <v>0.062446</v>
       </c>
       <c r="N19">
-        <v>0.11239</v>
+        <v>0.187338</v>
       </c>
       <c r="O19">
-        <v>0.0003899857692149022</v>
+        <v>0.0007841406213626924</v>
       </c>
       <c r="P19">
-        <v>0.0004171249774314009</v>
+        <v>0.0007949884789942698</v>
       </c>
       <c r="Q19">
-        <v>0.039705757345</v>
+        <v>0.05641215525000001</v>
       </c>
       <c r="R19">
-        <v>0.23823454407</v>
+        <v>0.3384729315</v>
       </c>
       <c r="S19">
-        <v>9.333676117951247E-06</v>
+        <v>1.770247439791359E-05</v>
       </c>
       <c r="T19">
-        <v>6.708995636993747E-06</v>
+        <v>1.205563568639395E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0598565</v>
+        <v>0.903375</v>
       </c>
       <c r="H20">
-        <v>2.119713</v>
+        <v>1.80675</v>
       </c>
       <c r="I20">
-        <v>0.02393337617611352</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J20">
-        <v>0.01608389811204027</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.750372</v>
+        <v>3.259981</v>
       </c>
       <c r="N20">
-        <v>37.500744</v>
+        <v>6.519962</v>
       </c>
       <c r="O20">
-        <v>0.195187603367352</v>
+        <v>0.04093590505349536</v>
       </c>
       <c r="P20">
-        <v>0.1391805053355347</v>
+        <v>0.02766814353457621</v>
       </c>
       <c r="Q20">
-        <v>19.872703641618</v>
+        <v>2.944985335875</v>
       </c>
       <c r="R20">
-        <v>79.490814566472</v>
+        <v>11.7799413435</v>
       </c>
       <c r="S20">
-        <v>0.004671498336304879</v>
+        <v>0.0009241541522304827</v>
       </c>
       <c r="T20">
-        <v>0.002238565066999016</v>
+        <v>0.0004195747075400212</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0598565</v>
+        <v>0.903375</v>
       </c>
       <c r="H21">
-        <v>2.119713</v>
+        <v>1.80675</v>
       </c>
       <c r="I21">
-        <v>0.02393337617611352</v>
+        <v>0.02257563747577563</v>
       </c>
       <c r="J21">
-        <v>0.01608389811204027</v>
+        <v>0.0151645413800781</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.101962</v>
+        <v>0.03672033333333333</v>
       </c>
       <c r="N21">
-        <v>0.305886</v>
+        <v>0.110161</v>
       </c>
       <c r="O21">
-        <v>0.001061403923855055</v>
+        <v>0.0004611008710989525</v>
       </c>
       <c r="P21">
-        <v>0.001135267291098688</v>
+        <v>0.0004674797736416945</v>
       </c>
       <c r="Q21">
-        <v>0.108065088453</v>
+        <v>0.033172231125</v>
       </c>
       <c r="R21">
-        <v>0.648390530718</v>
+        <v>0.19903338675</v>
       </c>
       <c r="S21">
-        <v>2.540297938442597E-05</v>
+        <v>1.04096461056943E-05</v>
       </c>
       <c r="T21">
-        <v>1.825952343996325E-05</v>
+        <v>7.089116371739019E-06</v>
       </c>
     </row>
   </sheetData>
